--- a/Reporting/Paginated/files/Paginated_Reports_KPI.xlsx
+++ b/Reporting/Paginated/files/Paginated_Reports_KPI.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://senseicloud-my.sharepoint.com/personal/nshakthi_sensei_cloud/Documents/Nikhi Work/Power BI/New Paginated Reports Development/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NikhilaShakthi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="8_{65F06D95-61C6-4621-84C5-B5C250348CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{817CA013-EEF2-4A13-A246-06E8DF6BEF34}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{964BFB5C-A053-4EB9-8475-8E0DD1CFBBB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{942B7635-CED2-45C6-A0CD-BB15D5844966}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Change Request KPI</t>
   </si>
@@ -216,21 +216,19 @@
   <si>
     <t>black</t>
   </si>
+  <si>
+    <t>KPI Names</t>
+  </si>
+  <si>
+    <t>SQL Logic</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -289,21 +287,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -327,13 +324,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>80761</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>398261</xdr:colOff>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>882650</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -371,13 +368,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>596901</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>158206</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -415,13 +412,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>43123</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>360623</xdr:colOff>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>146051</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -459,13 +456,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>114301</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>431801</xdr:colOff>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -503,13 +500,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>99815</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>417315</xdr:colOff>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -547,13 +544,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>361971</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:colOff>69871</xdr:colOff>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>107951</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -591,13 +588,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>450871</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:colOff>158771</xdr:colOff>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -635,14 +632,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>188383</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>908050</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>505883</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>927100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -995,118 +992,127 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD98A1C-B3A2-4F8B-B651-EF5FF31E8F08}">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.90625" customWidth="1"/>
     <col min="6" max="6" width="39.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:7" ht="32" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="96" x14ac:dyDescent="0.35">
-      <c r="F2" s="2" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="96" x14ac:dyDescent="0.35">
+      <c r="F3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.35">
-      <c r="F3" s="2"/>
-    </row>
     <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="96" x14ac:dyDescent="0.35">
-      <c r="F5" s="2" t="s">
+    <row r="6" spans="1:7" ht="96" x14ac:dyDescent="0.35">
+      <c r="F6" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F8" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F9" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F10" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
         <v>7</v>
       </c>
     </row>
